--- a/src/test/input/used/PM/MVP3 scope for TF_LC_B4-049_PM.xlsx
+++ b/src/test/input/used/PM/MVP3 scope for TF_LC_B4-049_PM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tata\CTBC Trade Finance\Letter of Credit\LC\Document for MVP4 FSD\BG\B4-049\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tata\CTBC Trade Finance\Letter of Credit\LC\Document for MVP4 FSD\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC55DB9-2B9B-4B8C-8B60-EBAE45D3012E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D0A1A7-B479-4DE7-AEB5-05AE4061FAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{FD512113-F5B0-4DB7-82FF-ABFE321860E8}"/>
   </bookViews>
@@ -541,31 +541,31 @@
     <t>O</t>
   </si>
   <si>
-    <t>POST /product/{product-ref}/bank-guarantee-parameter</t>
-  </si>
-  <si>
-    <t>PUT /product/{product-ref}/bank-guarantee-parameter</t>
-  </si>
-  <si>
-    <t>GET /product/{product-ref}/bank-guarantee-parameter</t>
+    <t>POST /v2/product/{product-ref}/bank-guarantee-parameter</t>
+  </si>
+  <si>
+    <t>PUT /v2/product/{product-ref}/bank-guarantee-parameter</t>
+  </si>
+  <si>
+    <t>GET /v2/product/{product-ref}/bank-guarantee-parameter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -627,7 +627,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -659,7 +659,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -685,7 +685,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -696,7 +696,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -717,6 +717,13 @@
       <color theme="1"/>
       <name val="Tw Cen MT"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1286,6 +1293,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1303,9 +1313,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1647,7 +1654,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" customWidth="1"/>
@@ -1681,7 +1688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1976,6 +1983,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1988,7 +1996,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
@@ -2172,7 +2180,7 @@
       <c r="E8" s="20"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2183,7 +2191,7 @@
       <c r="F9" s="13"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2233,7 +2241,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2244,7 +2252,7 @@
       <c r="F15" s="13"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2344,7 +2352,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2425,7 +2433,7 @@
       <c r="E33" s="20"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2436,7 +2444,7 @@
       <c r="F34" s="6"/>
       <c r="H34" s="16"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2447,7 +2455,7 @@
       <c r="F35" s="13"/>
       <c r="H35" s="16"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2457,7 +2465,7 @@
       <c r="E36" s="33"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2498,7 +2506,7 @@
       <c r="E40" s="20"/>
       <c r="F40" s="34"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2508,7 +2516,7 @@
       <c r="E41" s="20"/>
       <c r="F41" s="34"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2549,7 +2557,7 @@
       <c r="E45" s="20"/>
       <c r="F45" s="34"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2600,7 +2608,7 @@
       <c r="E50" s="20"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2651,7 +2659,7 @@
       <c r="E55" s="20"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2669,6 +2677,7 @@
       <c r="B58" s="41"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2678,10 +2687,10 @@
   <dimension ref="A1:P278"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="74" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="74" bestFit="1" customWidth="1"/>
@@ -2758,7 +2767,7 @@
       <c r="B2" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="107" t="s">
         <v>122</v>
       </c>
       <c r="D2" s="75" t="s">
@@ -2812,7 +2821,7 @@
       <c r="B3" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="107" t="s">
         <v>122</v>
       </c>
       <c r="D3" s="75" t="s">
@@ -2866,7 +2875,7 @@
       <c r="B4" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="107" t="s">
         <v>123</v>
       </c>
       <c r="D4" s="75" t="s">
@@ -2920,7 +2929,7 @@
       <c r="B5" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="107" t="s">
         <v>123</v>
       </c>
       <c r="D5" s="75" t="s">
@@ -2974,7 +2983,7 @@
       <c r="B6" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="107" t="s">
         <v>124</v>
       </c>
       <c r="D6" s="75" t="s">
@@ -3028,7 +3037,7 @@
       <c r="B7" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="113" t="s">
+      <c r="C7" s="107" t="s">
         <v>124</v>
       </c>
       <c r="D7" s="75" t="s">
@@ -5754,105 +5763,105 @@
       <c r="N260" s="91"/>
       <c r="O260" s="91"/>
     </row>
-    <row r="262" spans="3:15" ht="15.75">
+    <row r="262" spans="3:15">
       <c r="G262" s="92"/>
       <c r="H262" s="92"/>
       <c r="I262" s="92"/>
       <c r="J262" s="78"/>
       <c r="M262" s="91"/>
     </row>
-    <row r="263" spans="3:15" ht="15.75">
+    <row r="263" spans="3:15">
       <c r="G263" s="92"/>
       <c r="H263" s="92"/>
       <c r="I263" s="92"/>
       <c r="J263" s="78"/>
       <c r="M263" s="91"/>
     </row>
-    <row r="264" spans="3:15" ht="15.75">
+    <row r="264" spans="3:15">
       <c r="G264" s="92"/>
       <c r="H264" s="92"/>
       <c r="I264" s="92"/>
       <c r="J264" s="78"/>
       <c r="M264" s="91"/>
     </row>
-    <row r="265" spans="3:15" ht="15.75">
+    <row r="265" spans="3:15">
       <c r="G265" s="92"/>
       <c r="H265" s="92"/>
       <c r="I265" s="92"/>
       <c r="J265" s="78"/>
       <c r="M265" s="91"/>
     </row>
-    <row r="266" spans="3:15" ht="15.75">
+    <row r="266" spans="3:15">
       <c r="G266" s="92"/>
       <c r="H266" s="92"/>
       <c r="I266" s="92"/>
       <c r="J266" s="78"/>
       <c r="M266" s="91"/>
     </row>
-    <row r="268" spans="3:15" ht="15.75">
+    <row r="268" spans="3:15">
       <c r="G268" s="92"/>
       <c r="H268" s="92"/>
       <c r="I268" s="92"/>
       <c r="J268" s="78"/>
       <c r="M268" s="91"/>
     </row>
-    <row r="269" spans="3:15" ht="15.75">
+    <row r="269" spans="3:15">
       <c r="G269" s="92"/>
       <c r="H269" s="92"/>
       <c r="I269" s="92"/>
       <c r="J269" s="78"/>
       <c r="M269" s="91"/>
     </row>
-    <row r="270" spans="3:15" ht="15.75">
+    <row r="270" spans="3:15">
       <c r="G270" s="92"/>
       <c r="H270" s="92"/>
       <c r="I270" s="92"/>
       <c r="J270" s="78"/>
       <c r="M270" s="91"/>
     </row>
-    <row r="271" spans="3:15" ht="15.75">
+    <row r="271" spans="3:15">
       <c r="G271" s="92"/>
       <c r="H271" s="92"/>
       <c r="I271" s="92"/>
       <c r="J271" s="78"/>
       <c r="M271" s="91"/>
     </row>
-    <row r="272" spans="3:15" ht="15.75">
+    <row r="272" spans="3:15">
       <c r="G272" s="92"/>
       <c r="H272" s="92"/>
       <c r="I272" s="92"/>
       <c r="J272" s="78"/>
       <c r="M272" s="91"/>
     </row>
-    <row r="274" spans="7:13" ht="15.75">
+    <row r="274" spans="7:13">
       <c r="G274" s="92"/>
       <c r="H274" s="92"/>
       <c r="I274" s="92"/>
       <c r="J274" s="78"/>
       <c r="M274" s="91"/>
     </row>
-    <row r="275" spans="7:13" ht="15.75">
+    <row r="275" spans="7:13">
       <c r="G275" s="92"/>
       <c r="H275" s="92"/>
       <c r="I275" s="92"/>
       <c r="J275" s="78"/>
       <c r="M275" s="91"/>
     </row>
-    <row r="276" spans="7:13" ht="15.75">
+    <row r="276" spans="7:13">
       <c r="G276" s="92"/>
       <c r="H276" s="92"/>
       <c r="I276" s="92"/>
       <c r="J276" s="78"/>
       <c r="M276" s="91"/>
     </row>
-    <row r="277" spans="7:13" ht="15.75">
+    <row r="277" spans="7:13">
       <c r="G277" s="92"/>
       <c r="H277" s="92"/>
       <c r="I277" s="92"/>
       <c r="J277" s="78"/>
       <c r="M277" s="91"/>
     </row>
-    <row r="278" spans="7:13" ht="15.75">
+    <row r="278" spans="7:13">
       <c r="G278" s="92"/>
       <c r="H278" s="92"/>
       <c r="I278" s="92"/>
@@ -5874,7 +5883,7 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="33.85546875" style="59" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" style="59" customWidth="1"/>
@@ -6311,91 +6320,91 @@
       <c r="C53" s="69"/>
       <c r="D53" s="56"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1">
+    <row r="54" spans="1:4" ht="16.5" thickBot="1">
       <c r="A54" s="68"/>
       <c r="B54" s="68"/>
       <c r="C54" s="69"/>
       <c r="D54" s="70"/>
     </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1">
+    <row r="55" spans="1:4" ht="16.5" thickBot="1">
       <c r="A55" s="50"/>
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
       <c r="D55" s="52"/>
     </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1">
+    <row r="56" spans="1:4" ht="16.5" thickBot="1">
       <c r="A56" s="53"/>
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
       <c r="D56" s="55"/>
     </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1">
+    <row r="57" spans="1:4" ht="16.5" thickBot="1">
       <c r="A57" s="53"/>
       <c r="B57" s="54"/>
       <c r="C57" s="54"/>
       <c r="D57" s="55"/>
     </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1">
+    <row r="58" spans="1:4" ht="16.5" thickBot="1">
       <c r="A58" s="56"/>
       <c r="B58" s="56"/>
       <c r="C58" s="51"/>
       <c r="D58" s="70"/>
     </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1">
+    <row r="59" spans="1:4" ht="16.5" thickBot="1">
       <c r="A59" s="68"/>
       <c r="B59" s="103"/>
       <c r="C59" s="54"/>
       <c r="D59" s="70"/>
     </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1">
+    <row r="60" spans="1:4" ht="16.5" thickBot="1">
       <c r="A60" s="68"/>
       <c r="B60" s="103"/>
       <c r="C60" s="54"/>
       <c r="D60" s="70"/>
     </row>
-    <row r="61" spans="1:4" ht="15.75">
-      <c r="A61" s="107"/>
+    <row r="61" spans="1:4">
+      <c r="A61" s="108"/>
       <c r="B61" s="99"/>
-      <c r="C61" s="109"/>
-      <c r="D61" s="109"/>
+      <c r="C61" s="110"/>
+      <c r="D61" s="110"/>
     </row>
     <row r="62" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A62" s="108"/>
+      <c r="A62" s="109"/>
       <c r="B62" s="100"/>
-      <c r="C62" s="110"/>
-      <c r="D62" s="110"/>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1">
+      <c r="C62" s="111"/>
+      <c r="D62" s="111"/>
+    </row>
+    <row r="63" spans="1:4" ht="16.5" thickBot="1">
       <c r="A63" s="94"/>
       <c r="B63" s="95"/>
       <c r="C63" s="95"/>
       <c r="D63" s="95"/>
     </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1">
+    <row r="64" spans="1:4" ht="16.5" thickBot="1">
       <c r="A64" s="94"/>
       <c r="B64" s="95"/>
       <c r="C64" s="95"/>
       <c r="D64" s="96"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="111"/>
+      <c r="A65" s="112"/>
       <c r="B65" s="101"/>
-      <c r="C65" s="111"/>
-      <c r="D65" s="111"/>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A66" s="112"/>
+      <c r="C65" s="112"/>
+      <c r="D65" s="112"/>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A66" s="113"/>
       <c r="B66" s="102"/>
-      <c r="C66" s="112"/>
-      <c r="D66" s="112"/>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1">
+      <c r="C66" s="113"/>
+      <c r="D66" s="113"/>
+    </row>
+    <row r="67" spans="1:4" ht="16.5" thickBot="1">
       <c r="A67" s="97"/>
       <c r="B67" s="97"/>
       <c r="C67" s="97"/>
       <c r="D67" s="97"/>
     </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1">
+    <row r="68" spans="1:4" ht="16.5" thickBot="1">
       <c r="A68" s="97"/>
       <c r="B68" s="97"/>
       <c r="C68" s="97"/>
@@ -6410,6 +6419,7 @@
     <mergeCell ref="C65:C66"/>
     <mergeCell ref="D65:D66"/>
   </mergeCells>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6422,7 +6432,7 @@
       <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -6431,6 +6441,7 @@
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>